--- a/webroot/templates/production_confirmation.xlsx
+++ b/webroot/templates/production_confirmation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\bsms\webroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E3015-C0C3-4DB9-A764-948852864E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE550D-0CA6-C24F-8A4C-AFD2110744D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{30C76DB6-EE17-D84D-ABB1-A1A04F095F89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{30C76DB6-EE17-D84D-ABB1-A1A04F095F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Line 1</t>
   </si>
   <si>
-    <t>PRODUCTION LINE</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>PRODUCTION PLAN</t>
-  </si>
-  <si>
-    <t>CONFIRM PRODUCTION</t>
-  </si>
-  <si>
-    <t>Ethyl-2-(3-hydroxyphenyl)acetate</t>
+    <t>Factory Code</t>
+  </si>
+  <si>
+    <t>Production Line</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Target Production</t>
+  </si>
+  <si>
+    <t>Plan Date</t>
+  </si>
+  <si>
+    <t>Confirm Production</t>
+  </si>
+  <si>
+    <t>1_97_TH_Unit1</t>
+  </si>
+  <si>
+    <t>RMWIGID019</t>
+  </si>
+  <si>
+    <t>2023-aug-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,21 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525033E-F9E9-E842-9FEF-26A9F0784B38}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -428,16 +434,31 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>500</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/webroot/templates/production_confirmation.xlsx
+++ b/webroot/templates/production_confirmation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE550D-0CA6-C24F-8A4C-AFD2110744D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528AB98C-8A75-764A-AAD0-331AC890BDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{30C76DB6-EE17-D84D-ABB1-A1A04F095F89}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Line 1</t>
-  </si>
-  <si>
     <t>Factory Code</t>
   </si>
   <si>
@@ -48,26 +45,35 @@
     <t>Confirm Production</t>
   </si>
   <si>
-    <t>1_97_TH_Unit1</t>
-  </si>
-  <si>
-    <t>RMWIGID019</t>
-  </si>
-  <si>
-    <t>2023-aug-21</t>
+    <t>IN_13_NaviMumbai_Unit1</t>
+  </si>
+  <si>
+    <t>Line 101</t>
+  </si>
+  <si>
+    <t>ORBN020100</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,9 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +419,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,45 +428,46 @@
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>400</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
     </row>
